--- a/biology/Médecine/Serrapeptase/Serrapeptase.xlsx
+++ b/biology/Médecine/Serrapeptase/Serrapeptase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La serrapeptase ou Serratiopeptidase (Serratia E-15 protéase, également connu sous le nom serralysin, serratiapeptase, Serratia peptidase, serratio peptidase, ou serrapeptidase) est une enzyme protéolytique (protéase) produite par l'entérobactérie Serratia sp. E-15[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La serrapeptase ou Serratiopeptidase (Serratia E-15 protéase, également connu sous le nom serralysin, serratiapeptase, Serratia peptidase, serratio peptidase, ou serrapeptidase) est une enzyme protéolytique (protéase) produite par l'entérobactérie Serratia sp. E-15.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Revendications des bienfaits anti-inflammatoires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Serrapeptase est prescrit dans diverses spécialités comme la chirurgie, l'orthopédie, ORL, gynécologie et médecine dentaire pour ses effets anti-inflammatoires, anti-œdème et analgésique. Certains rapports anecdotiques suggèrent qu'il possède des effets anti-athérosclérosique, en raison de ses propriétés fibrinolytiques et caséinolytique. En dépit d'être largement utilisée il y a peu d'études publiées sur son efficacité. Ainsi, la preuve en ce qui concerne son utilité clinique est encore nécessaire[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Serrapeptase est prescrit dans diverses spécialités comme la chirurgie, l'orthopédie, ORL, gynécologie et médecine dentaire pour ses effets anti-inflammatoires, anti-œdème et analgésique. Certains rapports anecdotiques suggèrent qu'il possède des effets anti-athérosclérosique, en raison de ses propriétés fibrinolytiques et caséinolytique. En dépit d'être largement utilisée il y a peu d'études publiées sur son efficacité. Ainsi, la preuve en ce qui concerne son utilité clinique est encore nécessaire.
 </t>
         </is>
       </c>
